--- a/gametables.xlsx
+++ b/gametables.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haruk\Uni Work\comp603-pdc\RPGGameGUIVer\Simple-RPG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65535570-C859-4722-89E8-205CC1F36427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F0E724E-92FC-464D-A24F-F48697104FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8B09B6BD-04FE-4E95-BA6C-74A259CD734E}"/>
+    <workbookView xWindow="5424" yWindow="0" windowWidth="14736" windowHeight="12240" activeTab="3" xr2:uid="{8B09B6BD-04FE-4E95-BA6C-74A259CD734E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="weapon" sheetId="1" r:id="rId1"/>
+    <sheet name="heal" sheetId="2" r:id="rId2"/>
+    <sheet name="dmg" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="49">
   <si>
     <t>ID</t>
   </si>
@@ -141,6 +144,48 @@
   </si>
   <si>
     <t>Excalibur</t>
+  </si>
+  <si>
+    <t>START</t>
+  </si>
+  <si>
+    <t>SHOP</t>
+  </si>
+  <si>
+    <t>MOB</t>
+  </si>
+  <si>
+    <t>BOSS</t>
+  </si>
+  <si>
+    <t>Heal</t>
+  </si>
+  <si>
+    <t>Small Potion</t>
+  </si>
+  <si>
+    <t>Medium Potion</t>
+  </si>
+  <si>
+    <t>High Potion</t>
+  </si>
+  <si>
+    <t>Elixir</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>DMG</t>
+  </si>
+  <si>
+    <t>Small Bomb</t>
+  </si>
+  <si>
+    <t>Medium Bomb</t>
+  </si>
+  <si>
+    <t>High Bomb</t>
   </si>
 </sst>
 </file>
@@ -494,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5A05B3F-027A-4E85-95D4-7EAC052ABB30}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -533,6 +578,21 @@
       <c r="B2" t="s">
         <v>7</v>
       </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -541,6 +601,21 @@
       <c r="B3" t="s">
         <v>8</v>
       </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -549,6 +624,21 @@
       <c r="B4" t="s">
         <v>9</v>
       </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>-1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -557,6 +647,21 @@
       <c r="B5" t="s">
         <v>10</v>
       </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>-1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -565,6 +670,21 @@
       <c r="B6" t="s">
         <v>11</v>
       </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6">
+        <v>500</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -573,6 +693,21 @@
       <c r="B7" t="s">
         <v>12</v>
       </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7">
+        <v>500</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -581,6 +716,21 @@
       <c r="B8" t="s">
         <v>13</v>
       </c>
+      <c r="C8">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>-4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8">
+        <v>500</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -589,6 +739,21 @@
       <c r="B9" t="s">
         <v>14</v>
       </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>-1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9">
+        <v>500</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -597,6 +762,21 @@
       <c r="B10" t="s">
         <v>15</v>
       </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10">
+        <v>1000</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -605,6 +785,21 @@
       <c r="B11" t="s">
         <v>16</v>
       </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11">
+        <v>1000</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -613,6 +808,21 @@
       <c r="B12" t="s">
         <v>17</v>
       </c>
+      <c r="C12">
+        <v>13</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>-4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12">
+        <v>1000</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -621,6 +831,21 @@
       <c r="B13" t="s">
         <v>18</v>
       </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <v>-1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13">
+        <v>1000</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -629,6 +854,21 @@
       <c r="B14" t="s">
         <v>19</v>
       </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14">
+        <v>200</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -637,6 +877,21 @@
       <c r="B15" t="s">
         <v>20</v>
       </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15">
+        <v>200</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
@@ -645,112 +900,490 @@
       <c r="B16" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>-2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>15</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <v>17</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>-2</v>
+      </c>
+      <c r="F22" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>25</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>-5</v>
+      </c>
+      <c r="F23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="E24">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <v>15</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>10</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>10</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27">
+        <v>11</v>
+      </c>
+      <c r="F27" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>16</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="E28">
+        <v>5</v>
+      </c>
+      <c r="F28" t="s">
+        <v>37</v>
+      </c>
+      <c r="G28">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>34</v>
+      </c>
+      <c r="C29">
+        <v>30</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>5</v>
+      </c>
+      <c r="F29" t="s">
+        <v>38</v>
+      </c>
+      <c r="G29">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{139C9466-355F-4AC5-979A-2314553F986E}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3">
+        <v>50</v>
+      </c>
+      <c r="D3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4">
+        <v>150</v>
+      </c>
+      <c r="D4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5">
+        <v>1000000</v>
+      </c>
+      <c r="D5">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11502B49-A9BF-4CD7-816E-CF68476F2556}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3">
+        <v>50</v>
+      </c>
+      <c r="D3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4">
+        <v>150</v>
+      </c>
+      <c r="D4">
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8BF7ACF-172C-4CD0-8212-97EC0E97394E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/gametables.xlsx
+++ b/gametables.xlsx
@@ -5,18 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haruk\Uni Work\comp603-pdc\RPGGameGUIVer\Simple-RPG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\uniwork\comp603\Simple-RPG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F0E724E-92FC-464D-A24F-F48697104FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5366E302-C428-4075-B505-19895E20B715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5424" yWindow="0" windowWidth="14736" windowHeight="12240" activeTab="3" xr2:uid="{8B09B6BD-04FE-4E95-BA6C-74A259CD734E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{8B09B6BD-04FE-4E95-BA6C-74A259CD734E}"/>
   </bookViews>
   <sheets>
     <sheet name="weapon" sheetId="1" r:id="rId1"/>
     <sheet name="heal" sheetId="2" r:id="rId2"/>
     <sheet name="dmg" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
+    <sheet name="quest" sheetId="4" r:id="rId4"/>
+    <sheet name="item" sheetId="7" r:id="rId5"/>
+    <sheet name="enemy" sheetId="5" r:id="rId6"/>
+    <sheet name="hof" sheetId="6" r:id="rId7"/>
+    <sheet name="inventory" sheetId="8" r:id="rId8"/>
+    <sheet name="player" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="119">
   <si>
     <t>ID</t>
   </si>
@@ -158,9 +163,6 @@
     <t>BOSS</t>
   </si>
   <si>
-    <t>Heal</t>
-  </si>
-  <si>
     <t>Small Potion</t>
   </si>
   <si>
@@ -186,6 +188,219 @@
   </si>
   <si>
     <t>High Bomb</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Elf's Approval</t>
+  </si>
+  <si>
+    <t>Proof of Courage</t>
+  </si>
+  <si>
+    <t>Proof of Wisdom</t>
+  </si>
+  <si>
+    <t>Proof of Power</t>
+  </si>
+  <si>
+    <t>Map to the Demon Castle</t>
+  </si>
+  <si>
+    <t>Heart of the Demon Lord</t>
+  </si>
+  <si>
+    <t>Proof you have cleared the Goblin Forest and returned peace to the elves.</t>
+  </si>
+  <si>
+    <t>Proof you have cleared the Ancient Tomb and passed the trial of courage.</t>
+  </si>
+  <si>
+    <t>Proof you have cleared the Minotaur Labyrinth and passed the trial of wisdom.</t>
+  </si>
+  <si>
+    <t>Proof you have cleared the Death Mountain and passed the trial of power.</t>
+  </si>
+  <si>
+    <t>A map that you received from the elves after completing all the trials.\nShows the path to the Demon Castle where the Demon Lord resides.</t>
+  </si>
+  <si>
+    <t>Heart of the demon lord. \nProof you have defeated the final boss.</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>LVL</t>
+  </si>
+  <si>
+    <t>DateOfCompletion</t>
+  </si>
+  <si>
+    <t>atkStat</t>
+  </si>
+  <si>
+    <t>defStat</t>
+  </si>
+  <si>
+    <t>spdStat</t>
+  </si>
+  <si>
+    <t>Boss(bool)</t>
+  </si>
+  <si>
+    <t>Weapon</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Goblin</t>
+  </si>
+  <si>
+    <t>Giant Spider</t>
+  </si>
+  <si>
+    <t>Orc</t>
+  </si>
+  <si>
+    <t>Goblin King</t>
+  </si>
+  <si>
+    <t>Skeleton</t>
+  </si>
+  <si>
+    <t>Zombie</t>
+  </si>
+  <si>
+    <t>Dark Knight</t>
+  </si>
+  <si>
+    <t>Golem</t>
+  </si>
+  <si>
+    <t>Troll</t>
+  </si>
+  <si>
+    <t>Minotaur</t>
+  </si>
+  <si>
+    <t>Wyvern</t>
+  </si>
+  <si>
+    <t>Dragon</t>
+  </si>
+  <si>
+    <t>Ancient Dragon</t>
+  </si>
+  <si>
+    <t>Imp</t>
+  </si>
+  <si>
+    <t>Demon</t>
+  </si>
+  <si>
+    <t>Demon Lord</t>
+  </si>
+  <si>
+    <t>hpStat</t>
+  </si>
+  <si>
+    <t>Goblin Forest</t>
+  </si>
+  <si>
+    <t>Ancient Tomb</t>
+  </si>
+  <si>
+    <t>Minotaur Labyrinth</t>
+  </si>
+  <si>
+    <t>Death Mountain</t>
+  </si>
+  <si>
+    <t>Demon Castle</t>
+  </si>
+  <si>
+    <t>ItemID</t>
+  </si>
+  <si>
+    <t>Item Type</t>
+  </si>
+  <si>
+    <t>WEAPON</t>
+  </si>
+  <si>
+    <t>HEALITEM</t>
+  </si>
+  <si>
+    <t>DMGITEM</t>
+  </si>
+  <si>
+    <t>QUESTITEM</t>
+  </si>
+  <si>
+    <t>[redacted]</t>
+  </si>
+  <si>
+    <t>missingno</t>
+  </si>
+  <si>
+    <t>hidden grove</t>
+  </si>
+  <si>
+    <t>PlayerID</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>HPStat</t>
+  </si>
+  <si>
+    <t>MaxHP</t>
+  </si>
+  <si>
+    <t>CurrHP</t>
+  </si>
+  <si>
+    <t>XPNeeded</t>
+  </si>
+  <si>
+    <t>XPNow</t>
+  </si>
+  <si>
+    <t>AtkStat</t>
+  </si>
+  <si>
+    <t>DefStat</t>
+  </si>
+  <si>
+    <t>SpdStat</t>
+  </si>
+  <si>
+    <t>StatPoint</t>
+  </si>
+  <si>
+    <t>Money</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Act</t>
+  </si>
+  <si>
+    <t>Place</t>
+  </si>
+  <si>
+    <t>ITEMID</t>
+  </si>
+  <si>
+    <t>ITEMNAME</t>
+  </si>
+  <si>
+    <t>HEAL</t>
   </si>
 </sst>
 </file>
@@ -537,18 +752,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5A05B3F-027A-4E85-95D4-7EAC052ABB30}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.21875" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -571,7 +787,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -594,7 +810,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -617,7 +833,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -640,7 +856,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -663,7 +879,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -686,7 +902,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -709,7 +925,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -732,7 +948,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -755,7 +971,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -778,7 +994,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -801,7 +1017,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -824,7 +1040,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -847,7 +1063,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -870,7 +1086,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -893,7 +1109,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -916,7 +1132,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -939,7 +1155,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -962,7 +1178,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -985,7 +1201,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1008,7 +1224,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1031,7 +1247,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1054,7 +1270,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1077,7 +1293,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1100,7 +1316,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1123,7 +1339,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1146,7 +1362,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1169,7 +1385,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1192,7 +1408,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1215,8 +1431,32 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>42</v>
+      </c>
+      <c r="B30" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30">
+        <v>1000</v>
+      </c>
+      <c r="D30">
+        <v>50</v>
+      </c>
+      <c r="E30">
+        <v>100</v>
+      </c>
+      <c r="F30" t="s">
+        <v>98</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1225,31 +1465,34 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection sqref="A1:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="C1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
         <v>39</v>
-      </c>
-      <c r="D1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>40</v>
       </c>
       <c r="C2">
         <v>20</v>
@@ -1258,12 +1501,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3">
         <v>50</v>
@@ -1272,12 +1515,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4">
         <v>150</v>
@@ -1286,12 +1529,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5">
         <v>1000000</v>
@@ -1310,12 +1553,12 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1323,52 +1566,1090 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
         <v>45</v>
       </c>
-      <c r="D1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3">
+        <v>50</v>
+      </c>
+      <c r="D3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4">
+        <v>150</v>
+      </c>
+      <c r="D4">
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8BF7ACF-172C-4CD0-8212-97EC0E97394E}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="127" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3158DCB6-E1A9-4237-8995-FC4F287D4BAF}">
+  <dimension ref="A1:B43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection sqref="A1:B43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2">
-        <v>20</v>
-      </c>
-      <c r="D2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3">
-        <v>50</v>
-      </c>
-      <c r="D3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA04BC57-A164-4803-96ED-4B5E77C63A6C}">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="8" max="8" width="25.5703125" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2">
+        <v>0.16669999999999999</v>
+      </c>
+      <c r="D2">
+        <v>8.3299999999999999E-2</v>
+      </c>
+      <c r="E2">
+        <v>0.16669999999999999</v>
+      </c>
+      <c r="F2">
+        <v>0.58330000000000004</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3">
+        <v>0.23080000000000001</v>
+      </c>
+      <c r="D3">
+        <v>0.30769999999999997</v>
+      </c>
+      <c r="E3">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="F3">
+        <v>0.3846</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>72</v>
       </c>
       <c r="C4">
-        <v>150</v>
+        <v>0.29409999999999997</v>
       </c>
       <c r="D4">
-        <v>500</v>
+        <v>0.17649999999999999</v>
+      </c>
+      <c r="E4">
+        <v>0.1176</v>
+      </c>
+      <c r="F4">
+        <v>0.4118</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5">
+        <v>0.16669999999999999</v>
+      </c>
+      <c r="D5">
+        <v>8.3299999999999999E-2</v>
+      </c>
+      <c r="E5">
+        <v>0.16669999999999999</v>
+      </c>
+      <c r="F5">
+        <v>0.58330000000000004</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6">
+        <v>0.26669999999999999</v>
+      </c>
+      <c r="D6">
+        <v>0.1333</v>
+      </c>
+      <c r="E6">
+        <v>0.2</v>
+      </c>
+      <c r="F6">
+        <v>0.4</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7">
+        <v>0.35289999999999999</v>
+      </c>
+      <c r="D7">
+        <v>0.2059</v>
+      </c>
+      <c r="E7">
+        <v>0.23530000000000001</v>
+      </c>
+      <c r="F7">
+        <v>0.2059</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8">
+        <v>0.31580000000000003</v>
+      </c>
+      <c r="D8">
+        <v>0.31580000000000003</v>
+      </c>
+      <c r="E8">
+        <v>0.26319999999999999</v>
+      </c>
+      <c r="F8">
+        <v>0.1053</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9">
+        <v>0.35289999999999999</v>
+      </c>
+      <c r="D9">
+        <v>5.7099999999999998E-2</v>
+      </c>
+      <c r="E9">
+        <v>0.5</v>
+      </c>
+      <c r="F9">
+        <v>0.09</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10">
+        <v>0.36359999999999998</v>
+      </c>
+      <c r="D10">
+        <v>0.2273</v>
+      </c>
+      <c r="E10">
+        <v>0.18179999999999999</v>
+      </c>
+      <c r="F10">
+        <v>0.2273</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11">
+        <v>0.35289999999999999</v>
+      </c>
+      <c r="D11">
+        <v>0.2059</v>
+      </c>
+      <c r="E11">
+        <v>0.23530000000000001</v>
+      </c>
+      <c r="F11">
+        <v>0.2059</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12">
+        <v>0.25</v>
+      </c>
+      <c r="D12">
+        <v>0.25</v>
+      </c>
+      <c r="E12">
+        <v>0.25</v>
+      </c>
+      <c r="F12">
+        <v>0.25</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13">
+        <v>0.375</v>
+      </c>
+      <c r="D13">
+        <v>0.25</v>
+      </c>
+      <c r="E13">
+        <v>0.25</v>
+      </c>
+      <c r="F13">
+        <v>0.125</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14">
+        <v>0.375</v>
+      </c>
+      <c r="D14">
+        <v>0.25</v>
+      </c>
+      <c r="E14">
+        <v>0.25</v>
+      </c>
+      <c r="F14">
+        <v>0.125</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15">
+        <v>0.3</v>
+      </c>
+      <c r="D15">
+        <v>0.2</v>
+      </c>
+      <c r="E15">
+        <v>0.1</v>
+      </c>
+      <c r="F15">
+        <v>0.4</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="D16">
+        <v>0.26669999999999999</v>
+      </c>
+      <c r="E16">
+        <v>0.2</v>
+      </c>
+      <c r="F16">
+        <v>0.1333</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="D17">
+        <v>0.26669999999999999</v>
+      </c>
+      <c r="E17">
+        <v>0.2</v>
+      </c>
+      <c r="F17">
+        <v>0.1333</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18">
+        <v>0.01</v>
+      </c>
+      <c r="D18">
+        <v>0.01</v>
+      </c>
+      <c r="E18">
+        <v>0.01</v>
+      </c>
+      <c r="F18">
+        <v>0.97</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>98</v>
+      </c>
+      <c r="I18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFE397F1-2D2F-46D1-8754-59DD4F0134F8}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1376,14 +2657,99 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8BF7ACF-172C-4CD0-8212-97EC0E97394E}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8FC2488-C93E-4913-96EE-781AB29CDF8A}">
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB9DB590-AD0B-40AD-ACDE-6EA91155EF9E}">
+  <dimension ref="A1:Q1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L1" t="s">
+        <v>111</v>
+      </c>
+      <c r="M1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O1" t="s">
+        <v>113</v>
+      </c>
+      <c r="P1" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>